--- a/Hx.BackAdmin/App_Data/DCC日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/DCC日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>李容磊</t>
   </si>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重复数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增DCC有效线索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未建档-重复数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +541,18 @@
   </si>
   <si>
     <t>再次邀约到店数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首约到店网络客户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络成交数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +973,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,32 +1130,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1463,13 +1470,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AR63"/>
+  <dimension ref="A1:AR64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1686,7 +1693,7 @@
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="22"/>
@@ -1721,12 +1728,12 @@
       <c r="AF4" s="22"/>
       <c r="AG4" s="22"/>
       <c r="AH4" s="26">
-        <f t="shared" ref="AH4:AH12" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH11" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="26"/>
       <c r="AJ4" s="6" t="e">
-        <f t="shared" ref="AJ4:AJ12" si="1">AH4/AI4</f>
+        <f t="shared" ref="AJ4:AJ11" si="1">AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK4" s="4"/>
@@ -1747,12 +1754,12 @@
         <v>66</v>
       </c>
       <c r="AR4" s="19" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
@@ -1809,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="AP5" s="20" t="e">
-        <f>AI43/AI54</f>
+        <f>AI43/AI55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ5" s="20" t="e">
-        <f>AI14/AI13</f>
+        <f>AI13/AI12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR5" s="20" t="e">
-        <f>AI16/AI15</f>
+        <f>AI43/AI31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
@@ -1880,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="AP6" s="20" t="e">
-        <f>AH43/AH54</f>
+        <f>AH43/AH55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="20" t="e">
-        <f>AH14/AH13</f>
+        <f>AH13/AH12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="20" t="e">
-        <f>AH16/AH15</f>
+        <f>AH43/AH31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
@@ -1959,13 +1966,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR7" s="20" t="e">
-        <f t="shared" ref="AR7" si="3">AR6/AR5</f>
+        <f>AR6/AR5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="22"/>
@@ -2023,7 +2030,7 @@
         <v>69</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AR8" s="19" t="s">
         <v>70</v>
@@ -2031,7 +2038,7 @@
     </row>
     <row r="9" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="22"/>
@@ -2080,29 +2087,29 @@
         <v>20</v>
       </c>
       <c r="AN9" s="20" t="e">
-        <f>AI31/AI30</f>
+        <f>AI30/AI29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="20" t="e">
-        <f>AI32/AI5</f>
+        <f>AI31/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" s="20" t="e">
-        <f>AI41/(AI32+AI41)</f>
+        <f>AI41/(AI31+AI41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" s="20" t="e">
-        <f>AI43/AI32</f>
+        <f>AI15/AI14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" s="20" t="e">
-        <f>AI43/AI15</f>
+        <f>SUM(AI45:AI48)/AI14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="22"/>
@@ -2151,29 +2158,29 @@
         <v>21</v>
       </c>
       <c r="AN10" s="20" t="e">
-        <f>AH31/AH30</f>
+        <f>AH30/AH29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="20" t="e">
-        <f>AH32/AH5</f>
+        <f>AH31/AH5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="20" t="e">
-        <f>AH41/(AH32+AH41)</f>
+        <f>AH41/(AH31+AH41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="20" t="e">
-        <f>AH43/AH32</f>
+        <f>AH15/AH14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="20" t="e">
-        <f>AH43/AH15</f>
+        <f>SUM(AH45:AH48)/AH14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="22"/>
@@ -2226,27 +2233,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO11" s="20" t="e">
-        <f t="shared" ref="AO11" si="4">AO10/AO9</f>
+        <f t="shared" ref="AO11" si="3">AO10/AO9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP11" s="20" t="e">
-        <f t="shared" ref="AP11" si="5">AP10/AP9</f>
+        <f t="shared" ref="AP11" si="4">AP10/AP9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="20" t="e">
-        <f t="shared" ref="AQ11:AR11" si="6">AQ10/AQ9</f>
+        <f t="shared" ref="AQ11" si="5">AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR11" s="20" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AQ11:AR11" si="6">AR10/AR9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -2279,22 +2286,22 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH12:AH55" si="7">SUM(C12:AG12)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="26"/>
       <c r="AJ12" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="4"/>
+        <f>AH12/AI12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="14"/>
       <c r="AL12" s="7"/>
     </row>
     <row r="13" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="53"/>
+        <v>93</v>
+      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -2327,22 +2334,22 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="26">
-        <f t="shared" ref="AH13:AH54" si="7">SUM(C13:AG13)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI13" s="26"/>
       <c r="AJ13" s="6" t="e">
-        <f>AH13/AI13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK13" s="14"/>
+        <f t="shared" ref="AJ13:AJ55" si="8">AH13/AI13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="4"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="4" t="s">
         <v>62</v>
       </c>
       <c r="AN13" s="33"/>
       <c r="AO13" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AP13" s="33">
         <f>AH42-AH43</f>
@@ -2352,9 +2359,11 @@
     </row>
     <row r="14" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="54"/>
+        <v>94</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -2392,19 +2401,21 @@
       </c>
       <c r="AI14" s="26"/>
       <c r="AJ14" s="6" t="e">
-        <f t="shared" ref="AJ14:AJ54" si="8">AH14/AI14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="4"/>
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="AL14" s="7"/>
       <c r="AR14" s="9"/>
     </row>
     <row r="15" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -2443,13 +2454,11 @@
       </c>
       <c r="AI15" s="26"/>
       <c r="AJ15" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="7"/>
+        <f>AH15/AI15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="13"/>
       <c r="AM15" s="19" t="s">
         <v>71</v>
       </c>
@@ -2471,11 +2480,9 @@
     </row>
     <row r="16" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>27</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -2513,36 +2520,36 @@
       </c>
       <c r="AI16" s="26"/>
       <c r="AJ16" s="6" t="e">
-        <f>AH16/AI16</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" s="12"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="19" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AN16" s="20" t="e">
-        <f>AH6/AH4</f>
+        <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AP16" s="20" t="e">
-        <f>AH17/AH16</f>
+        <f>AH16/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" s="27" t="s">
         <v>37</v>
       </c>
       <c r="AR16" s="20" t="e">
-        <f>AH44/AH43</f>
+        <f>AH45/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -2588,30 +2595,30 @@
       <c r="AK17" s="12"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN17" s="20" t="e">
-        <f>AH7/AH4</f>
+        <f>AH6/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO17" s="19" t="s">
         <v>38</v>
       </c>
       <c r="AP17" s="20" t="e">
-        <f>AH18/AH16</f>
+        <f>AH17/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ17" s="27" t="s">
         <v>33</v>
       </c>
       <c r="AR17" s="20" t="e">
-        <f>AH45/AH43</f>
+        <f>AH46/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -2657,30 +2664,30 @@
       <c r="AK18" s="12"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN18" s="20" t="e">
-        <f>AH8/AH4</f>
+        <f>AH7/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="AP18" s="20" t="e">
-        <f>AH19/AH16</f>
+        <f>AH18/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="27" t="s">
         <v>34</v>
       </c>
       <c r="AR18" s="20" t="e">
-        <f>AH46/AH43</f>
+        <f>AH47/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -2726,30 +2733,30 @@
       <c r="AK19" s="12"/>
       <c r="AL19" s="13"/>
       <c r="AM19" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN19" s="20" t="e">
-        <f>AH9/AH4</f>
+        <f>AH8/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="AP19" s="20" t="e">
-        <f>AH20/AH16</f>
+        <f>AH19/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ19" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AR19" s="20" t="e">
-        <f>AH47/AH43</f>
+        <f>AH48/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -2795,30 +2802,30 @@
       <c r="AK20" s="12"/>
       <c r="AL20" s="13"/>
       <c r="AM20" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN20" s="20" t="e">
-        <f>AH10/AH4</f>
+        <f>AH9/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="AP20" s="20" t="e">
-        <f>AH21/AH16</f>
+        <f>AH20/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="AR20" s="20" t="e">
-        <f>AH48/AH43</f>
+        <f>AH49/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -2864,25 +2871,25 @@
       <c r="AK21" s="12"/>
       <c r="AL21" s="13"/>
       <c r="AM21" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN21" s="20" t="e">
-        <f>AH11/AH4</f>
+        <f>AH10/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="19"/>
       <c r="AP21" s="20"/>
       <c r="AQ21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR21" s="20" t="e">
-        <f>AH49/AH43</f>
+        <f>AH50/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="37" t="s">
-        <v>102</v>
+      <c r="A22" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -2928,27 +2935,29 @@
       <c r="AK22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN22" s="20" t="e">
-        <f>AH12/AH4</f>
+        <f>AH11/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="19"/>
       <c r="AP22" s="20"/>
       <c r="AQ22" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR22" s="20" t="e">
-        <f>AH50/AH43</f>
+        <f>AH51/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="21"/>
+      <c r="A23" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -2989,23 +2998,21 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="13"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="7"/>
       <c r="AQ23" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR23" s="20" t="e">
-        <f>AH51/AH43</f>
+        <f>AH52/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>4</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B24" s="40"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -3051,9 +3058,11 @@
     </row>
     <row r="25" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="40"/>
+        <v>104</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -3106,11 +3115,9 @@
     </row>
     <row r="26" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>28</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B26" s="53"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3156,16 +3163,16 @@
       <c r="AM26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AN26" s="52" t="s">
+      <c r="AN26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
     </row>
     <row r="27" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="22"/>
@@ -3208,21 +3215,23 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK27" s="4"/>
+      <c r="AK27" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="AL27" s="7"/>
       <c r="AM27" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AN27" s="52" t="s">
+      <c r="AN27" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
     </row>
     <row r="28" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="22"/>
@@ -3265,23 +3274,21 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK28" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="AK28" s="15"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN28" s="52" t="s">
+      <c r="AN28" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="52"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
     </row>
     <row r="29" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>109</v>
+      <c r="A29" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="22"/>
@@ -3329,16 +3336,16 @@
       <c r="AM29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AN29" s="52" t="s">
+      <c r="AN29" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="AO29" s="52"/>
-      <c r="AP29" s="52"/>
-      <c r="AQ29" s="52"/>
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
     </row>
     <row r="30" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="41" t="s">
-        <v>110</v>
+      <c r="A30" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="22"/>
@@ -3381,23 +3388,25 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK30" s="15"/>
+      <c r="AK30" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AL30" s="7"/>
       <c r="AM30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AN30" s="52" t="s">
+      <c r="AN30" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="52"/>
-      <c r="AQ30" s="52"/>
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="61"/>
     </row>
     <row r="31" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="53"/>
+      <c r="A31" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="28"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -3438,25 +3447,25 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK31" s="4" t="s">
-        <v>11</v>
+      <c r="AK31" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="AL31" s="7"/>
       <c r="AM31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN31" s="52" t="s">
+      <c r="AN31" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
     </row>
     <row r="32" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="B32" s="52"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -3497,23 +3506,21 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK32" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="AK32" s="16"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AN32" s="52" t="s">
+      <c r="AN32" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="52"/>
-      <c r="AQ32" s="52"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
     </row>
     <row r="33" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="60" t="s">
         <v>0</v>
@@ -3565,16 +3572,16 @@
       <c r="AM33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AN33" s="52" t="s">
+      <c r="AN33" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="52"/>
-      <c r="AP33" s="52"/>
-      <c r="AQ33" s="52"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
     </row>
     <row r="34" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="22"/>
@@ -3622,7 +3629,7 @@
     </row>
     <row r="35" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="22"/>
@@ -3670,7 +3677,7 @@
     </row>
     <row r="36" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="22"/>
@@ -3718,7 +3725,7 @@
     </row>
     <row r="37" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="22"/>
@@ -3768,7 +3775,7 @@
     </row>
     <row r="38" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="22"/>
@@ -3816,7 +3823,7 @@
     </row>
     <row r="39" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="22"/>
@@ -3864,7 +3871,7 @@
     </row>
     <row r="40" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="22"/>
@@ -3912,7 +3919,7 @@
     </row>
     <row r="41" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="53"/>
       <c r="C41" s="22"/>
@@ -3962,7 +3969,7 @@
     </row>
     <row r="42" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="22"/>
@@ -4010,7 +4017,7 @@
     </row>
     <row r="43" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -4057,8 +4064,8 @@
       <c r="AL43" s="7"/>
     </row>
     <row r="44" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="50" t="s">
-        <v>123</v>
+      <c r="A44" s="49" t="s">
+        <v>135</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -4106,7 +4113,7 @@
     </row>
     <row r="45" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -4154,7 +4161,7 @@
     </row>
     <row r="46" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -4202,7 +4209,7 @@
     </row>
     <row r="47" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -4250,11 +4257,9 @@
     </row>
     <row r="48" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>5</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B48" s="21"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -4300,9 +4305,11 @@
     </row>
     <row r="49" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="40"/>
+        <v>125</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -4348,7 +4355,7 @@
     </row>
     <row r="50" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" s="40"/>
       <c r="C50" s="22"/>
@@ -4396,9 +4403,9 @@
     </row>
     <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="B51" s="40"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -4442,9 +4449,9 @@
       <c r="AK51" s="4"/>
       <c r="AL51" s="7"/>
     </row>
-    <row r="52" spans="1:38" ht="20.25" customHeight="1">
-      <c r="A52" s="36" t="s">
-        <v>131</v>
+    <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="50" t="s">
+        <v>128</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -4487,10 +4494,12 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="7"/>
     </row>
     <row r="53" spans="1:38" ht="20.25" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>132</v>
+      <c r="A53" s="36" t="s">
+        <v>129</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -4534,9 +4543,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A54" s="17" t="s">
-        <v>23</v>
+    <row r="54" spans="1:38" ht="20.25" customHeight="1">
+      <c r="A54" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -4580,55 +4589,69 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
-      <c r="A56" s="1" t="s">
+    <row r="55" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A55" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="26"/>
+      <c r="AJ55" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38">
+      <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="N56" s="55" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="N57" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="55"/>
-      <c r="AJ56" s="55"/>
-    </row>
-    <row r="57" spans="1:38">
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="N57" s="55"/>
       <c r="O57" s="55"/>
       <c r="P57" s="55"/>
       <c r="Q57" s="55"/>
@@ -4684,7 +4707,7 @@
       <c r="AI58" s="55"/>
       <c r="AJ58" s="55"/>
     </row>
-    <row r="59" spans="1:38" ht="409.6">
+    <row r="59" spans="1:38">
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4717,6 +4740,13 @@
       <c r="AJ59" s="55"/>
     </row>
     <row r="60" spans="1:38">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
       <c r="N60" s="55"/>
       <c r="O60" s="55"/>
       <c r="P60" s="55"/>
@@ -4767,19 +4797,38 @@
       <c r="AJ61" s="55"/>
     </row>
     <row r="62" spans="1:38">
-      <c r="B62" s="1"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="55"/>
     </row>
     <row r="63" spans="1:38">
       <c r="B63" s="1"/>
     </row>
+    <row r="64" spans="1:38">
+      <c r="B64" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="N56:AJ61"/>
-    <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B26:B31"/>
     <mergeCell ref="AN30:AQ30"/>
     <mergeCell ref="AN31:AQ31"/>
     <mergeCell ref="AN32:AQ32"/>
@@ -4788,10 +4837,16 @@
     <mergeCell ref="AN27:AQ27"/>
     <mergeCell ref="AN28:AQ28"/>
     <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="N57:AJ62"/>
+    <mergeCell ref="A1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B25:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C56" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="512" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/DCC日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/DCC日报表模板.xlsx
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络线索转化率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网络线索明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,6 +549,10 @@
   </si>
   <si>
     <t>网络成交数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索转化率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,6 +560,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -973,7 +976,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1476,7 +1482,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1496,85 +1502,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="57"/>
       <c r="AL1" s="11"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="59"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
@@ -1693,7 +1699,7 @@
     </row>
     <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="22"/>
@@ -1759,7 +1765,7 @@
     </row>
     <row r="5" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="22"/>
@@ -1815,22 +1821,22 @@
         <f>AI43</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="20" t="e">
+      <c r="AP5" s="53" t="e">
         <f>AI43/AI55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ5" s="20" t="e">
+      <c r="AQ5" s="53" t="e">
         <f>AI13/AI12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="20" t="e">
+      <c r="AR5" s="53" t="e">
         <f>AI43/AI31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="22"/>
@@ -1886,22 +1892,22 @@
         <f>AH43</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="20" t="e">
+      <c r="AP6" s="53" t="e">
         <f>AH43/AH55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="20" t="e">
+      <c r="AQ6" s="53" t="e">
         <f>AH13/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="20" t="e">
+      <c r="AR6" s="53" t="e">
         <f>AH43/AH31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="22"/>
@@ -1949,30 +1955,30 @@
       <c r="AM7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AN7" s="20" t="e">
+      <c r="AN7" s="53" t="e">
         <f>AN6/AN5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="20" t="e">
+      <c r="AO7" s="53" t="e">
         <f t="shared" ref="AO7:AP7" si="2">AO6/AO5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="20" t="e">
+      <c r="AP7" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="20" t="e">
+      <c r="AQ7" s="53" t="e">
         <f>AQ6/AQ5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="20" t="e">
+      <c r="AR7" s="53" t="e">
         <f>AR6/AR5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="22"/>
@@ -2033,12 +2039,12 @@
         <v>67</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="22"/>
@@ -2086,30 +2092,30 @@
       <c r="AM9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="20" t="e">
+      <c r="AN9" s="53" t="e">
         <f>AI30/AI29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="20" t="e">
+      <c r="AO9" s="53" t="e">
         <f>AI31/AI5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="20" t="e">
+      <c r="AP9" s="53" t="e">
         <f>AI41/(AI31+AI41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="20" t="e">
+      <c r="AQ9" s="53" t="e">
         <f>AI15/AI14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="20" t="e">
-        <f>SUM(AI45:AI48)/AI14</f>
+      <c r="AR9" s="53" t="e">
+        <f>AI42/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="22"/>
@@ -2157,30 +2163,30 @@
       <c r="AM10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="20" t="e">
+      <c r="AN10" s="53" t="e">
         <f>AH30/AH29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="20" t="e">
+      <c r="AO10" s="53" t="e">
         <f>AH31/AH5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="20" t="e">
+      <c r="AP10" s="53" t="e">
         <f>AH41/(AH31+AH41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="20" t="e">
+      <c r="AQ10" s="53" t="e">
         <f>AH15/AH14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="20" t="e">
-        <f>SUM(AH45:AH48)/AH14</f>
+      <c r="AR10" s="53" t="e">
+        <f>AH42/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="22"/>
@@ -2228,32 +2234,32 @@
       <c r="AM11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AN11" s="20" t="e">
+      <c r="AN11" s="53" t="e">
         <f>AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="20" t="e">
+      <c r="AO11" s="53" t="e">
         <f t="shared" ref="AO11" si="3">AO10/AO9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="20" t="e">
+      <c r="AP11" s="53" t="e">
         <f t="shared" ref="AP11" si="4">AP10/AP9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="20" t="e">
+      <c r="AQ11" s="53" t="e">
         <f t="shared" ref="AQ11" si="5">AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="20" t="e">
-        <f t="shared" ref="AQ11:AR11" si="6">AR10/AR9</f>
+      <c r="AR11" s="53" t="e">
+        <f t="shared" ref="AR11" si="6">AR10/AR9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="53"/>
+        <v>91</v>
+      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -2299,9 +2305,9 @@
     </row>
     <row r="13" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="54"/>
+        <v>92</v>
+      </c>
+      <c r="B13" s="55"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -2349,7 +2355,7 @@
       </c>
       <c r="AN13" s="33"/>
       <c r="AO13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP13" s="33">
         <f>AH42-AH43</f>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="14" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>24</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="15" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>27</v>
@@ -2460,10 +2466,10 @@
       <c r="AK15" s="12"/>
       <c r="AL15" s="13"/>
       <c r="AM15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="AN15" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="AO15" s="19" t="s">
         <v>31</v>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="16" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -2526,30 +2532,30 @@
       <c r="AK16" s="12"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN16" s="20" t="e">
+        <v>132</v>
+      </c>
+      <c r="AN16" s="53" t="e">
         <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AP16" s="20" t="e">
+      <c r="AP16" s="53" t="e">
         <f>AH16/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AR16" s="20" t="e">
+      <c r="AR16" s="53" t="e">
         <f>AH45/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -2595,30 +2601,30 @@
       <c r="AK17" s="12"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN17" s="20" t="e">
+        <v>72</v>
+      </c>
+      <c r="AN17" s="53" t="e">
         <f>AH6/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AP17" s="20" t="e">
+      <c r="AP17" s="53" t="e">
         <f>AH17/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ17" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AR17" s="20" t="e">
+      <c r="AR17" s="53" t="e">
         <f>AH46/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -2664,30 +2670,30 @@
       <c r="AK18" s="12"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN18" s="20" t="e">
+        <v>73</v>
+      </c>
+      <c r="AN18" s="53" t="e">
         <f>AH7/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AP18" s="20" t="e">
+      <c r="AP18" s="53" t="e">
         <f>AH18/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AR18" s="20" t="e">
+      <c r="AR18" s="53" t="e">
         <f>AH47/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -2733,30 +2739,30 @@
       <c r="AK19" s="12"/>
       <c r="AL19" s="13"/>
       <c r="AM19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN19" s="20" t="e">
+        <v>74</v>
+      </c>
+      <c r="AN19" s="53" t="e">
         <f>AH8/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AP19" s="20" t="e">
+      <c r="AP19" s="53" t="e">
         <f>AH19/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ19" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR19" s="20" t="e">
+        <v>78</v>
+      </c>
+      <c r="AR19" s="53" t="e">
         <f>AH48/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -2802,30 +2808,30 @@
       <c r="AK20" s="12"/>
       <c r="AL20" s="13"/>
       <c r="AM20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN20" s="20" t="e">
+        <v>75</v>
+      </c>
+      <c r="AN20" s="53" t="e">
         <f>AH9/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AP20" s="20" t="e">
+      <c r="AP20" s="53" t="e">
         <f>AH20/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AR20" s="20" t="e">
+      <c r="AR20" s="53" t="e">
         <f>AH49/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -2871,25 +2877,25 @@
       <c r="AK21" s="12"/>
       <c r="AL21" s="13"/>
       <c r="AM21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN21" s="20" t="e">
+        <v>76</v>
+      </c>
+      <c r="AN21" s="53" t="e">
         <f>AH10/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="19"/>
       <c r="AP21" s="20"/>
       <c r="AQ21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR21" s="20" t="e">
+        <v>79</v>
+      </c>
+      <c r="AR21" s="53" t="e">
         <f>AH50/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -2935,25 +2941,25 @@
       <c r="AK22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN22" s="20" t="e">
+        <v>77</v>
+      </c>
+      <c r="AN22" s="53" t="e">
         <f>AH11/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="19"/>
       <c r="AP22" s="20"/>
       <c r="AQ22" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR22" s="20" t="e">
+        <v>80</v>
+      </c>
+      <c r="AR22" s="53" t="e">
         <f>AH51/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>4</v>
@@ -3001,16 +3007,16 @@
       <c r="AK23" s="4"/>
       <c r="AL23" s="7"/>
       <c r="AQ23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR23" s="20" t="e">
+        <v>81</v>
+      </c>
+      <c r="AR23" s="53" t="e">
         <f>AH52/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="22"/>
@@ -3058,9 +3064,9 @@
     </row>
     <row r="25" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="22"/>
@@ -3115,9 +3121,9 @@
     </row>
     <row r="26" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="53"/>
+        <v>104</v>
+      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3163,18 +3169,18 @@
       <c r="AM26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AN26" s="61" t="s">
+      <c r="AN26" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
     </row>
     <row r="27" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="53"/>
+        <v>105</v>
+      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -3222,18 +3228,18 @@
       <c r="AM27" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AN27" s="61" t="s">
+      <c r="AN27" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
     </row>
     <row r="28" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="53"/>
+        <v>106</v>
+      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -3279,18 +3285,18 @@
       <c r="AM28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN28" s="61" t="s">
+      <c r="AN28" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
     </row>
     <row r="29" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="53"/>
+        <v>107</v>
+      </c>
+      <c r="B29" s="54"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -3336,18 +3342,18 @@
       <c r="AM29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AN29" s="61" t="s">
+      <c r="AN29" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="61"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
     </row>
     <row r="30" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="53"/>
+        <v>108</v>
+      </c>
+      <c r="B30" s="54"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3395,16 +3401,16 @@
       <c r="AM30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AN30" s="61" t="s">
+      <c r="AN30" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="AO30" s="61"/>
-      <c r="AP30" s="61"/>
-      <c r="AQ30" s="61"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
     </row>
     <row r="31" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="22"/>
@@ -3454,16 +3460,16 @@
       <c r="AM31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN31" s="61" t="s">
+      <c r="AN31" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AO31" s="61"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="61"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
     </row>
     <row r="32" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="22"/>
@@ -3511,18 +3517,18 @@
       <c r="AM32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AN32" s="61" t="s">
+      <c r="AN32" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="AO32" s="61"/>
-      <c r="AP32" s="61"/>
-      <c r="AQ32" s="61"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
     </row>
     <row r="33" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="61" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="22"/>
@@ -3572,18 +3578,18 @@
       <c r="AM33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AN33" s="61" t="s">
+      <c r="AN33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="61"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
     </row>
     <row r="34" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="53"/>
+        <v>111</v>
+      </c>
+      <c r="B34" s="54"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3629,9 +3635,9 @@
     </row>
     <row r="35" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="53"/>
+        <v>112</v>
+      </c>
+      <c r="B35" s="54"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3677,9 +3683,9 @@
     </row>
     <row r="36" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="53"/>
+        <v>113</v>
+      </c>
+      <c r="B36" s="54"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3725,9 +3731,9 @@
     </row>
     <row r="37" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="53"/>
+        <v>114</v>
+      </c>
+      <c r="B37" s="54"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -3775,9 +3781,9 @@
     </row>
     <row r="38" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="53"/>
+        <v>115</v>
+      </c>
+      <c r="B38" s="54"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -3823,9 +3829,9 @@
     </row>
     <row r="39" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="53"/>
+        <v>116</v>
+      </c>
+      <c r="B39" s="54"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -3871,9 +3877,9 @@
     </row>
     <row r="40" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="53"/>
+        <v>117</v>
+      </c>
+      <c r="B40" s="54"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -3919,9 +3925,9 @@
     </row>
     <row r="41" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="53"/>
+        <v>131</v>
+      </c>
+      <c r="B41" s="54"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3969,9 +3975,9 @@
     </row>
     <row r="42" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="54"/>
+        <v>118</v>
+      </c>
+      <c r="B42" s="55"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="43" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -4065,7 +4071,7 @@
     </row>
     <row r="44" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -4113,7 +4119,7 @@
     </row>
     <row r="45" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="46" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="47" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -4257,7 +4263,7 @@
     </row>
     <row r="48" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -4305,7 +4311,7 @@
     </row>
     <row r="49" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>5</v>
@@ -4355,7 +4361,7 @@
     </row>
     <row r="50" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="40"/>
       <c r="C50" s="22"/>
@@ -4403,7 +4409,7 @@
     </row>
     <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="40"/>
       <c r="C51" s="22"/>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -4499,7 +4505,7 @@
     </row>
     <row r="53" spans="1:38" ht="20.25" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -4545,7 +4551,7 @@
     </row>
     <row r="54" spans="1:38" ht="20.25" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -4649,31 +4655,31 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="N57" s="55" t="s">
+      <c r="N57" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="55"/>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="55"/>
-      <c r="AJ57" s="55"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="56"/>
+      <c r="AC57" s="56"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="56"/>
+      <c r="AF57" s="56"/>
+      <c r="AG57" s="56"/>
+      <c r="AH57" s="56"/>
+      <c r="AI57" s="56"/>
+      <c r="AJ57" s="56"/>
     </row>
     <row r="58" spans="1:38">
       <c r="E58" s="3"/>
@@ -4683,29 +4689,29 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
-      <c r="AC58" s="55"/>
-      <c r="AD58" s="55"/>
-      <c r="AE58" s="55"/>
-      <c r="AF58" s="55"/>
-      <c r="AG58" s="55"/>
-      <c r="AH58" s="55"/>
-      <c r="AI58" s="55"/>
-      <c r="AJ58" s="55"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="56"/>
+      <c r="AJ58" s="56"/>
     </row>
     <row r="59" spans="1:38">
       <c r="E59" s="3"/>
@@ -4715,29 +4721,29 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
-      <c r="AC59" s="55"/>
-      <c r="AD59" s="55"/>
-      <c r="AE59" s="55"/>
-      <c r="AF59" s="55"/>
-      <c r="AG59" s="55"/>
-      <c r="AH59" s="55"/>
-      <c r="AI59" s="55"/>
-      <c r="AJ59" s="55"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
+      <c r="W59" s="56"/>
+      <c r="X59" s="56"/>
+      <c r="Y59" s="56"/>
+      <c r="Z59" s="56"/>
+      <c r="AA59" s="56"/>
+      <c r="AB59" s="56"/>
+      <c r="AC59" s="56"/>
+      <c r="AD59" s="56"/>
+      <c r="AE59" s="56"/>
+      <c r="AF59" s="56"/>
+      <c r="AG59" s="56"/>
+      <c r="AH59" s="56"/>
+      <c r="AI59" s="56"/>
+      <c r="AJ59" s="56"/>
     </row>
     <row r="60" spans="1:38">
       <c r="E60" s="3"/>
@@ -4747,79 +4753,79 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="55"/>
-      <c r="AI60" s="55"/>
-      <c r="AJ60" s="55"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="56"/>
+      <c r="AB60" s="56"/>
+      <c r="AC60" s="56"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="56"/>
+      <c r="AF60" s="56"/>
+      <c r="AG60" s="56"/>
+      <c r="AH60" s="56"/>
+      <c r="AI60" s="56"/>
+      <c r="AJ60" s="56"/>
     </row>
     <row r="61" spans="1:38">
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="55"/>
-      <c r="AJ61" s="55"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="56"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="56"/>
+      <c r="AF61" s="56"/>
+      <c r="AG61" s="56"/>
+      <c r="AH61" s="56"/>
+      <c r="AI61" s="56"/>
+      <c r="AJ61" s="56"/>
     </row>
     <row r="62" spans="1:38">
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="55"/>
-      <c r="AI62" s="55"/>
-      <c r="AJ62" s="55"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="56"/>
+      <c r="AB62" s="56"/>
+      <c r="AC62" s="56"/>
+      <c r="AD62" s="56"/>
+      <c r="AE62" s="56"/>
+      <c r="AF62" s="56"/>
+      <c r="AG62" s="56"/>
+      <c r="AH62" s="56"/>
+      <c r="AI62" s="56"/>
+      <c r="AJ62" s="56"/>
     </row>
     <row r="63" spans="1:38">
       <c r="B63" s="1"/>

--- a/Hx.BackAdmin/App_Data/DCC日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/DCC日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>李容磊</t>
   </si>
@@ -553,6 +553,30 @@
   </si>
   <si>
     <t>线索转化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车之家订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易车网订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平洋订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他网络订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转介绍订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触点订单数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,6 +1163,9 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,9 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1476,13 +1500,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AR64"/>
+  <dimension ref="A1:AR70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1502,85 +1526,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="58"/>
       <c r="AL1" s="11"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="60"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
@@ -1822,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="53" t="e">
-        <f>AI43/AI55</f>
+        <f>AI43/AI61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ5" s="53" t="e">
@@ -1893,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="53" t="e">
-        <f>AH43/AH55</f>
+        <f>AH43/AH61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="53" t="e">
@@ -2259,7 +2283,7 @@
       <c r="A12" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -2292,7 +2316,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="26">
-        <f t="shared" ref="AH12:AH55" si="7">SUM(C12:AG12)</f>
+        <f t="shared" ref="AH12:AH61" si="7">SUM(C12:AG12)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="26"/>
@@ -2307,7 +2331,7 @@
       <c r="A13" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -2345,7 +2369,7 @@
       </c>
       <c r="AI13" s="26"/>
       <c r="AJ13" s="6" t="e">
-        <f t="shared" ref="AJ13:AJ55" si="8">AH13/AI13</f>
+        <f t="shared" ref="AJ13:AJ61" si="8">AH13/AI13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="4"/>
@@ -2618,7 +2642,7 @@
         <v>33</v>
       </c>
       <c r="AR17" s="53" t="e">
-        <f>AH46/AH43</f>
+        <f>AH47/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2687,7 +2711,7 @@
         <v>34</v>
       </c>
       <c r="AR18" s="53" t="e">
-        <f>AH47/AH43</f>
+        <f>AH49/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2756,7 +2780,7 @@
         <v>78</v>
       </c>
       <c r="AR19" s="53" t="e">
-        <f>AH48/AH43</f>
+        <f>AH51/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2825,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="AR20" s="53" t="e">
-        <f>AH49/AH43</f>
+        <f>AH53/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2889,7 +2913,7 @@
         <v>79</v>
       </c>
       <c r="AR21" s="53" t="e">
-        <f>AH50/AH43</f>
+        <f>AH55/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2953,7 +2977,7 @@
         <v>80</v>
       </c>
       <c r="AR22" s="53" t="e">
-        <f>AH51/AH43</f>
+        <f>AH57/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3010,7 +3034,7 @@
         <v>81</v>
       </c>
       <c r="AR23" s="53" t="e">
-        <f>AH52/AH43</f>
+        <f>AH58/AH43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3066,7 +3090,7 @@
       <c r="A25" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="22"/>
@@ -3123,7 +3147,7 @@
       <c r="A26" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3169,18 +3193,18 @@
       <c r="AM26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AN26" s="62" t="s">
+      <c r="AN26" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
     </row>
     <row r="27" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -3228,18 +3252,18 @@
       <c r="AM27" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AN27" s="62" t="s">
+      <c r="AN27" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
     </row>
     <row r="28" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -3285,18 +3309,18 @@
       <c r="AM28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN28" s="62" t="s">
+      <c r="AN28" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
     </row>
     <row r="29" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -3342,18 +3366,18 @@
       <c r="AM29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AN29" s="62" t="s">
+      <c r="AN29" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
     </row>
     <row r="30" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3401,12 +3425,12 @@
       <c r="AM30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AN30" s="62" t="s">
+      <c r="AN30" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
     </row>
     <row r="31" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="43" t="s">
@@ -3460,12 +3484,12 @@
       <c r="AM31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN31" s="62" t="s">
+      <c r="AN31" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
     </row>
     <row r="32" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="43" t="s">
@@ -3517,18 +3541,18 @@
       <c r="AM32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AN32" s="62" t="s">
+      <c r="AN32" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54"/>
     </row>
     <row r="33" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="62" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="22"/>
@@ -3578,18 +3602,18 @@
       <c r="AM33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AN33" s="62" t="s">
+      <c r="AN33" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
     </row>
     <row r="34" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3637,7 +3661,7 @@
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3685,7 +3709,7 @@
       <c r="A36" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3733,7 +3757,7 @@
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -3783,7 +3807,7 @@
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -3831,7 +3855,7 @@
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -3879,7 +3903,7 @@
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -3927,7 +3951,7 @@
       <c r="A41" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3977,7 +4001,7 @@
       <c r="A42" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -4167,7 +4191,7 @@
     </row>
     <row r="46" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="50" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -4215,7 +4239,7 @@
     </row>
     <row r="47" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -4263,7 +4287,7 @@
     </row>
     <row r="48" spans="1:43" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="50" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -4311,11 +4335,9 @@
     </row>
     <row r="49" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B49" s="21"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -4361,9 +4383,9 @@
     </row>
     <row r="50" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="40"/>
+        <v>138</v>
+      </c>
+      <c r="B50" s="21"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -4409,9 +4431,9 @@
     </row>
     <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="40"/>
+        <v>123</v>
+      </c>
+      <c r="B51" s="21"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -4457,7 +4479,7 @@
     </row>
     <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="50" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -4503,11 +4525,13 @@
       <c r="AK52" s="4"/>
       <c r="AL52" s="7"/>
     </row>
-    <row r="53" spans="1:38" ht="20.25" customHeight="1">
-      <c r="A53" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="21"/>
+    <row r="53" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -4548,10 +4572,12 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" ht="20.25" customHeight="1">
-      <c r="A54" s="18" t="s">
-        <v>129</v>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="7"/>
+    </row>
+    <row r="54" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="50" t="s">
+        <v>140</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -4594,12 +4620,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="21"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="7"/>
+    </row>
+    <row r="55" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="40"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -4637,204 +4665,494 @@
       </c>
       <c r="AI55" s="26"/>
       <c r="AJ55" s="6" t="e">
+        <f>AH55/AI55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="7"/>
+    </row>
+    <row r="56" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="40"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="6" t="e">
+        <f>AH56/AI56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="7"/>
+    </row>
+    <row r="57" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" spans="1:38">
-      <c r="A57" s="1" t="s">
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="7"/>
+    </row>
+    <row r="58" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="26"/>
+      <c r="AJ58" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="7"/>
+    </row>
+    <row r="59" spans="1:38" ht="20.25" customHeight="1">
+      <c r="A59" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="26"/>
+      <c r="AJ59" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" ht="20.25" customHeight="1">
+      <c r="A60" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="26"/>
+      <c r="AJ60" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="26"/>
+      <c r="AJ61" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="N57" s="56" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="N63" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-      <c r="AH57" s="56"/>
-      <c r="AI57" s="56"/>
-      <c r="AJ57" s="56"/>
-    </row>
-    <row r="58" spans="1:38">
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
-      <c r="AH58" s="56"/>
-      <c r="AI58" s="56"/>
-      <c r="AJ58" s="56"/>
-    </row>
-    <row r="59" spans="1:38">
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="56"/>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="56"/>
-      <c r="AH59" s="56"/>
-      <c r="AI59" s="56"/>
-      <c r="AJ59" s="56"/>
-    </row>
-    <row r="60" spans="1:38">
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-      <c r="AH60" s="56"/>
-      <c r="AI60" s="56"/>
-      <c r="AJ60" s="56"/>
-    </row>
-    <row r="61" spans="1:38">
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="56"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="56"/>
-      <c r="AF61" s="56"/>
-      <c r="AG61" s="56"/>
-      <c r="AH61" s="56"/>
-      <c r="AI61" s="56"/>
-      <c r="AJ61" s="56"/>
-    </row>
-    <row r="62" spans="1:38">
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="56"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-      <c r="AC62" s="56"/>
-      <c r="AD62" s="56"/>
-      <c r="AE62" s="56"/>
-      <c r="AF62" s="56"/>
-      <c r="AG62" s="56"/>
-      <c r="AH62" s="56"/>
-      <c r="AI62" s="56"/>
-      <c r="AJ62" s="56"/>
-    </row>
-    <row r="63" spans="1:38">
-      <c r="B63" s="1"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
+      <c r="AD63" s="57"/>
+      <c r="AE63" s="57"/>
+      <c r="AF63" s="57"/>
+      <c r="AG63" s="57"/>
+      <c r="AH63" s="57"/>
+      <c r="AI63" s="57"/>
+      <c r="AJ63" s="57"/>
     </row>
     <row r="64" spans="1:38">
-      <c r="B64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="57"/>
+      <c r="AE64" s="57"/>
+      <c r="AF64" s="57"/>
+      <c r="AG64" s="57"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="57"/>
+      <c r="AJ64" s="57"/>
+    </row>
+    <row r="65" spans="2:36">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="57"/>
+      <c r="Z65" s="57"/>
+      <c r="AA65" s="57"/>
+      <c r="AB65" s="57"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="57"/>
+      <c r="AE65" s="57"/>
+      <c r="AF65" s="57"/>
+      <c r="AG65" s="57"/>
+      <c r="AH65" s="57"/>
+      <c r="AI65" s="57"/>
+      <c r="AJ65" s="57"/>
+    </row>
+    <row r="66" spans="2:36">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="Z66" s="57"/>
+      <c r="AA66" s="57"/>
+      <c r="AB66" s="57"/>
+      <c r="AC66" s="57"/>
+      <c r="AD66" s="57"/>
+      <c r="AE66" s="57"/>
+      <c r="AF66" s="57"/>
+      <c r="AG66" s="57"/>
+      <c r="AH66" s="57"/>
+      <c r="AI66" s="57"/>
+      <c r="AJ66" s="57"/>
+    </row>
+    <row r="67" spans="2:36">
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="57"/>
+      <c r="Z67" s="57"/>
+      <c r="AA67" s="57"/>
+      <c r="AB67" s="57"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="57"/>
+      <c r="AE67" s="57"/>
+      <c r="AF67" s="57"/>
+      <c r="AG67" s="57"/>
+      <c r="AH67" s="57"/>
+      <c r="AI67" s="57"/>
+      <c r="AJ67" s="57"/>
+    </row>
+    <row r="68" spans="2:36">
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="57"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="57"/>
+      <c r="Y68" s="57"/>
+      <c r="Z68" s="57"/>
+      <c r="AA68" s="57"/>
+      <c r="AB68" s="57"/>
+      <c r="AC68" s="57"/>
+      <c r="AD68" s="57"/>
+      <c r="AE68" s="57"/>
+      <c r="AF68" s="57"/>
+      <c r="AG68" s="57"/>
+      <c r="AH68" s="57"/>
+      <c r="AI68" s="57"/>
+      <c r="AJ68" s="57"/>
+    </row>
+    <row r="69" spans="2:36">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:36">
+      <c r="B70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="N63:AJ68"/>
+    <mergeCell ref="A1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B25:B30"/>
     <mergeCell ref="AN30:AQ30"/>
     <mergeCell ref="AN31:AQ31"/>
     <mergeCell ref="AN32:AQ32"/>
@@ -4843,16 +5161,10 @@
     <mergeCell ref="AN27:AQ27"/>
     <mergeCell ref="AN28:AQ28"/>
     <mergeCell ref="AN29:AQ29"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="N57:AJ62"/>
-    <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B25:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C57" r:id="rId1"/>
+    <hyperlink ref="C63" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="512" orientation="portrait" verticalDpi="0" r:id="rId2"/>
